--- a/stock_historical_data/3mo/LALPATHLAB.NS.xlsx
+++ b/stock_historical_data/3mo/LALPATHLAB.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,16 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +578,12 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +634,12 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +690,12 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +746,12 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +802,12 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +858,12 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +914,12 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +970,12 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +1026,12 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1082,12 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1138,12 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1194,12 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1250,12 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1306,12 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1362,12 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1418,12 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1474,12 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1530,12 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1586,12 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1642,12 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1698,12 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1754,12 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1810,12 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1866,12 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1922,12 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1978,12 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +2034,12 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2090,12 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2146,12 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2202,12 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2258,12 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2113,9 +2309,15 @@
         <v>35</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2168,6 +2370,12 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2216,6 +2424,66 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2664</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2681.949951171875</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2631</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2669.300048828125</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2669.300048828125</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>22</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stock_historical_data/3mo/LALPATHLAB.NS.xlsx
+++ b/stock_historical_data/3mo/LALPATHLAB.NS.xlsx
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -2482,7 +2482,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
